--- a/pred_ohlcv/54_21/2019-11-02 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 DAC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1988636.364743154</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3448571.798043154</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4780377.976843154</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12281008.13254175</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12688655.1232567</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12936214.5848567</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>13249624.03807333</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>15866975.2525567</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>14650037.7449567</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15545135.5211567</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>13157168.8134567</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>13759891.3676567</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12984302.0994567</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12214475.2560567</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12261210.6442567</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11795562.8043567</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11313334.8727567</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11646498.3852567</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10784999.4548567</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11065639.60607887</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11312210.61287887</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>11095235.32937887</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11377413.66447887</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>11459666.22697887</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>11283868.98167887</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11056869.10827886</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>11316728.79237887</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>11714017.69147887</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>11496017.69147887</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11452254.77977887</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>11161079.74977887</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6309067.021478872</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6027717.025478872</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5743634.245478871</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5883714.591478871</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5763395.842778871</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4881389.867778871</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4641537.492778871</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4644201.664878871</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4049273.906878871</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4175393.153978871</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4130198.948478871</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4133507.42747887</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4134662.42237887</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4504800.43377887</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4048707.91497887</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4342096.82897887</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4502645.43607887</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4502645.43607887</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4694238.37847887</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4924403.576478873</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>5513133.437478874</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5267629.908478874</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5198910.047778874</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5198910.047778874</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5198910.047778874</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5340272.326778874</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5505540.602378874</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>5505540.602378874</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>5231755.195978874</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5595003.373578874</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5575918.427878874</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>5575918.427878874</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>5777522.327578874</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>5777522.327578874</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>5612973.013578874</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5803942.794578874</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5791952.208078874</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>5682367.886878874</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5752421.123478875</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5484391.705878874</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5200156.866778875</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5544320.694778875</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5396348.020078874</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4787957.452778874</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4871715.345978874</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>5083586.699678874</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5059958.289478873</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>5062442.289478873</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4991160.329278873</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4978858.420878873</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4953364.831578873</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>5129178.862978873</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4875946.986678873</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4452779.345578874</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4745527.416978873</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3894134.731178873</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3741368.145578873</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3760350.493378873</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3755891.196878873</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4325314.786478873</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3702750.407578873</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4237423.422778874</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4525762.371367885</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4056464.554167885</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4327723.706167885</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4532474.963567885</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4595308.485367885</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4493764.705867885</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4626516.257967885</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4360715.670167885</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4663050.627167885</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4914634.742167885</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>5219338.034767886</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5370306.535267886</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>5326256.868967886</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>5371170.909267887</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>5409986.964667886</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>5164978.005667887</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>5492475.433467886</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>6100769.042367887</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>5961805.535867887</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>6113751.916867887</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>6804494.197149137</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>6857304.055149137</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>6472069.201749137</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>6742597.029749136</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>7020341.842749137</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>7020341.842749137</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>6479027.721849136</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7013478.390349136</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5764265.402949136</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5888894.219149136</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5777573.905249136</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5058962.660949135</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4954733.445349135</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>5221217.006349135</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4869047.801549135</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>5215836.729449135</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>6053870.514849136</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>5604780.276849136</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>5881953.282749136</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4614594.571449135</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4163126.003549135</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4198275.158549136</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4202704.061549135</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4080301.754249135</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4628192.439549135</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>3867515.665349135</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>3724938.186349135</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>5477487.287549135</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>5595665.419549135</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>5871363.755749135</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5429023.858749135</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>5655728.373749135</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>5362000.746749135</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>5584849.785749135</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>5889246.429749135</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>5889246.429749135</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>5889246.429749135</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>5282675.970549135</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>5282675.970549135</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4492329.028249135</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4492329.028249135</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4067430.724649135</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4511355.567449135</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4828427.961449135</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4545385.577449135</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4225571.979349135</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4514441.103349135</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>5117548.762127243</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5041245.293227243</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5041245.293227243</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>4842078.341027243</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5627080.821327243</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>5536218.709827243</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>5522559.077527244</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>6060308.228527244</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>6085504.468627244</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>5778241.521627245</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>6040228.629627245</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6040238.629627245</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>6030395.338027244</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>6117484.180827244</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>5952650.994727245</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>5952650.994727245</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>5954238.940127244</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>5640675.262127244</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>5926592.520127244</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>5866779.487027245</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>6184651.981027245</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>6262829.875227245</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>6064656.105927245</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>6337345.203927245</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>6509709.412827245</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>6500035.412827245</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>6509625.412827245</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>6308898.659827245</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>5908998.580827245</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>6048764.651827246</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>5615191.019527246</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>5527490.150527246</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>5387060.694727247</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>5465208.441427247</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5316164.563027247</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>5548952.870527247</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5230486.205527247</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5695806.463227247</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5695599.998827247</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>5569658.467627247</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>5256717.855627247</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>5376139.707827247</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>5376139.707827247</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>5551018.257827247</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4941079.022827246</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4732089.377027246</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4883450.587027246</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4876434.804327246</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4590206.799627245</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4836143.540627246</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4585605.363627246</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4585605.363627246</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4873017.397627246</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>4601505.124627246</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4601505.124627246</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>4325032.065027245</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4039981.815027245</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4367944.599027245</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4635589.930027246</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4917639.001027245</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>4619887.873027245</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>4290527.647027245</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>4491905.988127245</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4854672.955427244</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>5124888.218927245</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4798597.889027244</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>4545063.849627244</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4687720.622948156</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>5061754.713848156</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3836829.371748156</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>4201288.546748156</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4201288.546748156</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3963520.729148156</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>4379424.517478661</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3935013.626399599</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4063347.604299599</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3415638.479560378</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3145102.955060379</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2885195.363160379</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3254816.266960379</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3075198.025960379</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2564609.901660379</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2682896.709060379</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2675956.352760379</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2675966.352760379</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3252938.716760379</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3831491.189746461</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3525440.866646461</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3528331.280346461</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3280577.238046461</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2964762.266046461</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2644940.073046461</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2768368.861046461</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2294504.088046461</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2827415.437148492</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>3187732.740461615</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4081657.669288346</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3954106.150345113</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3771221.743345113</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4073579.589545113</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>4072192.923245113</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>4043928.225445113</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3914277.721645113</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>4303232.825645112</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>4569434.805645112</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>4295214.631645112</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4513925.974645113</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>4524907.140945112</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>5370105.492545113</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>5370125.492545113</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>5593637.625045113</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>8296728.319745113</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>9525101.252281815</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>7298998.713499761</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>6212382.435099761</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>6121041.410099761</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>6846090.587599761</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>7930212.82079976</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6395602.224399759</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>6630270.904399758</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6348178.595399758</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>5982077.454199757</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>6086080.344199757</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5817027.944499759</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5584968.179999759</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>5584968.179999759</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>5679231.986970269</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5679231.986970269</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5679211.986970269</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>5689850.378870269</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>4830473.338870269</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>5669181.068170269</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>5659607.801970269</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>5659607.801970269</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>5659607.801970269</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>5533970.177970269</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>5375945.530270269</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5376845.530270269</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5456845.530270269</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5556845.530270269</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5556825.530270269</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5681280.95229976</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5677581.45269976</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>5666905.58169976</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5650430.89479976</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5650408.89479976</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5648953.89479976</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5653324.64619976</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5368408.67659976</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5368397.67659976</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5368397.67659976</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5378397.67659976</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5378386.67659976</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5418386.67659976</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5418375.67659976</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5488486.67659976</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5516030.67659976</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5516041.67659976</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5588463.92499976</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5558463.92499976</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5568463.92499976</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5568463.92499976</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5643921.782499759</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>6514495.74599976</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>6979217.61469976</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>6979272.52179976</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>6707463.39209976</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>4767025.73199976</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>4767025.73199976</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4661893.30969976</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>4605262.146699759</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4605282.146699759</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4605302.146699759</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4585302.146699759</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4515639.292099759</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4585639.292099759</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4585659.292099759</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>4565659.292099759</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4544925.867499759</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4544925.867499759</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4545025.867499759</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4434062.899999759</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4019954.337199759</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>3440059.403499759</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4158867.603399759</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>4318867.603399759</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>4318767.603399759</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>3623642.787699759</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>3623642.787699759</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>3080055.943599759</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>3080055.943599759</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>3080055.943599759</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>3080055.943599759</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>3044997.715899759</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>2745489.870299759</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1315859.914958144</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1738253.355724059</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1723416.591943154</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1988636.364743154</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3448571.798043154</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4780377.976843154</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>14650037.7449567</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15545135.5211567</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>13157168.8134567</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>13759891.3676567</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12984302.0994567</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12214475.2560567</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12261210.6442567</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11795562.8043567</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11313334.8727567</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11646498.3852567</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10784999.4548567</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11065639.60607887</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5595003.373578874</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5575918.427878874</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>5612973.013578874</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5803942.794578874</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5791952.208078874</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5752421.123478875</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5484391.705878874</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5200156.866778875</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5544320.694778875</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5396348.020078874</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4787957.452778874</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4871715.345978874</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>5083586.699678874</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>5093162.920878873</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5059958.289478873</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>5062442.289478873</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4991160.329278873</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4978858.420878873</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4953364.831578873</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>5129178.862978873</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4875946.986678873</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4452779.345578874</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4745527.416978873</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3894134.731178873</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3741368.145578873</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3760350.493378873</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3755891.196878873</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4325314.786478873</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3702750.407578873</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4237423.422778874</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4525762.371367885</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4056464.554167885</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4327723.706167885</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4532474.963567885</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4595308.485367885</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4493764.705867885</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4626516.257967885</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4360715.670167885</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4663050.627167885</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4914634.742167885</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>5219338.034767886</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5370306.535267886</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>5326256.868967886</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>5371170.909267887</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>5409986.964667886</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>5164978.005667887</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>5492475.433467886</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>6100769.042367887</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>5961805.535867887</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>6113751.916867887</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>6804494.197149137</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>6857304.055149137</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>6472069.201749137</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>6742597.029749136</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>7020341.842749137</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>7020341.842749137</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>6479027.721849136</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7013478.390349136</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5764265.402949136</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5888894.219149136</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5777573.905249136</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5058962.660949135</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4954733.445349135</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>5221217.006349135</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4869047.801549135</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>5215836.729449135</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>6053870.514849136</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>5604780.276849136</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>5881953.282749136</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4614594.571449135</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4163126.003549135</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4198275.158549136</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4202704.061549135</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4080301.754249135</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4628192.439549135</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>3867515.665349135</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>3724938.186349135</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>5477487.287549135</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>5595665.419549135</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>5871363.755749135</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5429023.858749135</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>5362000.746749135</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>5584849.785749135</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4492329.028249135</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4492329.028249135</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4067430.724649135</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4511355.567449135</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4828427.961449135</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4545385.577449135</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4225571.979349135</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4514441.103349135</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>5117548.762127243</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5041245.293227243</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5041245.293227243</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>4842078.341027243</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5627080.821327243</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>5536218.709827243</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>5522559.077527244</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>6060308.228527244</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>6085504.468627244</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>5778241.521627245</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>6040228.629627245</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6040238.629627245</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>6030395.338027244</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>6117484.180827244</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>5952650.994727245</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>5952650.994727245</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>5954238.940127244</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>5640675.262127244</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>5926592.520127244</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>5866779.487027245</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>6184651.981027245</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>6262829.875227245</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>6064656.105927245</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>6337345.203927245</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>6509709.412827245</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>6500035.412827245</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>6509625.412827245</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>6308898.659827245</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>5908998.580827245</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>6048764.651827246</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>5615191.019527246</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>5527490.150527246</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>5387060.694727247</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>5465208.441427247</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5316164.563027247</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>5548952.870527247</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5230486.205527247</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5695806.463227247</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5695599.998827247</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>5376139.707827247</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>5376139.707827247</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>5551018.257827247</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4941079.022827246</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4732089.377027246</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4883450.587027246</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4876434.804327246</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4836143.540627246</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4039981.815027245</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4367944.599027245</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4635589.930027246</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4917639.001027245</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>4290527.647027245</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>4491905.988127245</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4854672.955427244</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>5124888.218927245</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4798597.889027244</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>4545063.849627244</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4687720.622948156</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>5061754.713848156</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3836829.371748156</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>4201288.546748156</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4201288.546748156</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3963520.729148156</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>4379424.517478661</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3935013.626399599</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4063347.604299599</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3415638.479560378</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3145102.955060379</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2885195.363160379</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3254816.266960379</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3075198.025960379</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2564609.901660379</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2682896.709060379</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2675956.352760379</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2675966.352760379</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3252938.716760379</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3831491.189746461</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3525440.866646461</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3528331.280346461</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3280577.238046461</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2964762.266046461</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2644940.073046461</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2768368.861046461</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2294504.088046461</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2827415.437148492</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>3187732.740461615</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4081657.669288346</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3954106.150345113</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3771221.743345113</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4073579.589545113</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>4072192.923245113</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>4043928.225445113</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3914277.721645113</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>4303232.825645112</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>4569434.805645112</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>4295214.631645112</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4513925.974645113</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>4524907.140945112</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>5370105.492545113</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>5370125.492545113</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>5593637.625045113</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>8296728.319745113</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>11283445.04258182</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>9872256.465881815</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>9160013.431681816</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>9525101.252281815</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5648953.89479976</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5653324.64619976</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5368408.67659976</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5368397.67659976</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5368397.67659976</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5378397.67659976</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5418386.67659976</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5418375.67659976</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5488486.67659976</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5516030.67659976</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5516041.67659976</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5588463.92499976</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>2745489.870299759</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
